--- a/response_with_status_temp.xlsx
+++ b/response_with_status_temp.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="status_sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -487,10 +487,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C13"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="67.52" customWidth="1" style="3" min="1" max="1"/>
     <col width="40.29" customWidth="1" style="3" min="2" max="2"/>
@@ -552,7 +552,11 @@
           <t>Sorry I am busy</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -615,11 +619,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Server Timeout</t>
-        </is>
-      </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr"/>
@@ -657,10 +657,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C13"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="98.37" customWidth="1" style="3" min="1" max="1"/>
     <col width="42.79" customWidth="1" style="3" min="2" max="2"/>
@@ -797,11 +797,11 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C13"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="62.24" customWidth="1" style="3" min="1" max="1"/>
     <col width="25.98" customWidth="1" style="3" min="2" max="2"/>
@@ -955,10 +955,10 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C13"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="47.82" customWidth="1" style="3" min="1" max="1"/>
     <col width="18.2" customWidth="1" style="3" min="2" max="2"/>
@@ -1111,11 +1111,11 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C13"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="45.98" customWidth="1" style="3" min="1" max="1"/>
     <col width="22.92" customWidth="1" style="3" min="2" max="2"/>
@@ -1253,10 +1253,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C13"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="55.85" customWidth="1" style="3" min="1" max="1"/>
     <col width="42.21" customWidth="1" style="3" min="2" max="2"/>

--- a/response_with_status_temp.xlsx
+++ b/response_with_status_temp.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="status_sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -112,7 +112,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,10 +499,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C8:C19 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="67.52" customWidth="1" style="3" min="1" max="1"/>
     <col width="40.29" customWidth="1" style="3" min="2" max="2"/>
@@ -498,17 +510,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Replies</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -565,7 +577,11 @@
           <t>No it is not</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
       <c r="A7" s="3" t="inlineStr"/>
@@ -574,7 +590,11 @@
           <t>I am busy</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr"/>
@@ -583,7 +603,11 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
       <c r="A9" s="3" t="inlineStr"/>
@@ -657,10 +681,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="98.37" customWidth="1" style="3" min="1" max="1"/>
     <col width="42.79" customWidth="1" style="3" min="2" max="2"/>
@@ -668,17 +692,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Replies</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -695,90 +719,119 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="C2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Yes I am</t>
         </is>
       </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Not at all</t>
         </is>
       </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>I have to think</t>
         </is>
       </c>
+      <c r="C6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>I have to think</t>
         </is>
       </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>not available</t>
         </is>
       </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Lets see</t>
         </is>
       </c>
+      <c r="C9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>nbosuhqiohd</t>
         </is>
       </c>
+      <c r="C10" s="3" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Lets see</t>
         </is>
       </c>
+      <c r="C11" s="3" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Please let me know in advance for further meeting</t>
         </is>
       </c>
+      <c r="C13" s="3" t="inlineStr"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="4">
+      <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Yeah tell</t>
         </is>
       </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4"/>
     <row r="16" ht="15" customHeight="1" s="4"/>
@@ -797,28 +850,28 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="62.24" customWidth="1" style="3" min="1" max="1"/>
     <col width="25.98" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Replies</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -835,103 +888,119 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>I have little</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>4yrs</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
+      <c r="C4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>I dont have experience</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Too much</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n"/>
+      <c r="C6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>I have to think</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n"/>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>not available</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
+      <c r="C8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n"/>
+      <c r="C9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>wbcuiwuw</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n"/>
+      <c r="C10" s="3" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Lets see</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n"/>
+      <c r="C11" s="3" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n"/>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n"/>
+      <c r="C13" s="3" t="inlineStr"/>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
+      <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n"/>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4">
       <c r="C15" s="3" t="n"/>
@@ -955,27 +1024,27 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C8:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="47.82" customWidth="1" style="3" min="1" max="1"/>
     <col width="18.2" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Replies</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -992,103 +1061,119 @@
           <t>10lpa</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>I am unemployed</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>not much</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
+      <c r="C4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n"/>
+      <c r="C6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>I have to think</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n"/>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>not available</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
+      <c r="C8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>@nfeaj2</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n"/>
+      <c r="C9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>nkjawxnncw</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n"/>
+      <c r="C10" s="3" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n"/>
+      <c r="C11" s="3" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n"/>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n"/>
+      <c r="C13" s="3" t="inlineStr"/>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
+      <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n"/>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4">
       <c r="C15" s="3" t="n"/>
@@ -1112,10 +1197,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="C8:C19 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="45.98" customWidth="1" style="3" min="1" max="1"/>
     <col width="22.92" customWidth="1" style="3" min="2" max="2"/>
@@ -1123,17 +1208,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Replies</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -1150,90 +1235,119 @@
           <t>15lpa</t>
         </is>
       </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>I can work for free</t>
         </is>
       </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
+      <c r="C4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>aevsfvevw</t>
         </is>
       </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>I have to think</t>
         </is>
       </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>not available</t>
         </is>
       </c>
+      <c r="C8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Not Interested</t>
         </is>
       </c>
+      <c r="C9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>kwbdcuhbiqw</t>
         </is>
       </c>
+      <c r="C10" s="3" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C11" s="3" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C13" s="3" t="inlineStr"/>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
+      <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4"/>
     <row r="16" ht="12.8" customHeight="1" s="4"/>
@@ -1252,11 +1366,11 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="55.85" customWidth="1" style="3" min="1" max="1"/>
     <col width="42.21" customWidth="1" style="3" min="2" max="2"/>
@@ -1264,17 +1378,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Replies</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -1291,90 +1405,119 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>I dont want it</t>
         </is>
       </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>I am not sure</t>
         </is>
       </c>
+      <c r="C4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>I have to think</t>
         </is>
       </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>not available</t>
         </is>
       </c>
+      <c r="C8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>please dont bother to arrange interview</t>
         </is>
       </c>
+      <c r="C9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>nbkcwcbws</t>
         </is>
       </c>
+      <c r="C10" s="3" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Lets see</t>
         </is>
       </c>
+      <c r="C11" s="3" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="4">
+      <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
+      <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Please let me know in advance for further meeting</t>
         </is>
       </c>
+      <c r="C13" s="3" t="inlineStr"/>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="4">
+      <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4"/>
     <row r="16" ht="12.8" customHeight="1" s="4"/>

--- a/response_with_status_temp.xlsx
+++ b/response_with_status_temp.xlsx
@@ -496,13 +496,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C8:C19 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="67.52" customWidth="1" style="3" min="1" max="1"/>
     <col width="40.29" customWidth="1" style="3" min="2" max="2"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Yes yes</t>
+          <t>yeah tell</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -543,7 +543,7 @@
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Yes it is</t>
+          <t>Ok bye</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -552,7 +552,7 @@
       <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>you can contact at the end of this month</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -561,59 +561,43 @@
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Sorry I am busy</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+          <t>anytime after this week</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>No it is not</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+          <t>anytime between upcoming 10 days</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
       <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>I am busy</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+          <t>60 months of experience i have in python</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+          <t>next evening</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
       <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>I am available after some time</t>
+          <t>anytime before tommorow evening</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -622,7 +606,7 @@
       <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>cawnodninw</t>
+          <t>tommorow</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -631,7 +615,7 @@
       <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>not here</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -640,7 +624,7 @@
       <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>yes i am available</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -649,7 +633,7 @@
       <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>yes i am available but give me 2 min i am just going outside</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -658,13 +642,348 @@
       <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>yes, this is good time to talk we can talk</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="4"/>
-    <row r="16" ht="12.8" customHeight="1" s="4"/>
+    <row r="15" ht="12.8" customHeight="1" s="4">
+      <c r="A15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>yes, this is good time to talk i am available</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="4">
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>yes, we can talk. as i am available now</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>kindly schedule interview at tomorrow</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>sure we can talk</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Yes of course</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>sorry where are you calling from?</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>yes go ahead</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>currently i am at outside so not possible to talk</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>is it possible continue call at tomorrow?</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>yes, this is good time to talk</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>yes i am available we can talk</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>yes i am available we can talk now</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>can we schedule interview tomorrow?</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>is there any interview tomorrow</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>can we have any interview tomorrow?</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Kindly provide me the job location</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>tell the company name</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>please tell me the job designation</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>can you please provide the company name</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>ok give me brief information about your company</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>please tell me the roles and responsibilities for this post</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Provide me your contact number as well emai id for contact.</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>So do you provide me work from home</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>are you calling from ahmedabad ?</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>ok so how much you will pay to me</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>yes it is but where are you calling from ?</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>can you please share your contact number</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>please share your contact number</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>ok guide me for roles and responsibilities for this job.</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>please share the roles and responsibilities of this job profile</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>ok share me the location of the company</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>if possible please tell me what is this about</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>yes carry on but go slowly</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>pretty much and is there any other technology</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Paragraph Repeat</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>i have 3 years of experience but what is the requirement</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>i have 3 years of experience but how much you required</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>yes why not</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -678,13 +997,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="98.37" customWidth="1" style="3" min="1" max="1"/>
     <col width="42.79" customWidth="1" style="3" min="2" max="2"/>
@@ -716,7 +1035,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I might be interested</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -725,16 +1044,20 @@
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Yes I am</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
+          <t>I would be interested</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I should be interested</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -743,7 +1066,7 @@
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Not at all</t>
+          <t>I would be available</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -752,7 +1075,7 @@
       <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>I have to think</t>
+          <t>Yes might be available</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -761,7 +1084,7 @@
       <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>I have to think</t>
+          <t>I may be available</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -770,20 +1093,16 @@
       <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>not available</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+          <t>I thought I am available</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
       <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Lets see</t>
+          <t>I must be available</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -792,7 +1111,7 @@
       <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>nbosuhqiohd</t>
+          <t>not sure for availability</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -801,7 +1120,7 @@
       <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Lets see</t>
+          <t>I might be unsure</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -810,7 +1129,7 @@
       <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sorry I cant sure</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -819,7 +1138,7 @@
       <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Please let me know in advance for further meeting</t>
+          <t>not sure to continue</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -828,13 +1147,344 @@
       <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Yeah tell</t>
+          <t>thinking to continue call</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="4"/>
-    <row r="16" ht="15" customHeight="1" s="4"/>
+    <row r="15" ht="12.8" customHeight="1" s="4">
+      <c r="A15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Unsure to continue call</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="4">
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Unsure to carry on</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ammmm Let me think</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Let me think to continue</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Very unsure to continue</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>not so much sure</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>still thinking to continue</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>i am not sure</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>i need to think</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>I am not comfortable</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>i want to disconnect</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>it wont work sorry</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>ok it wont work</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>no please disconnect this</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>how to stop this</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>please dont disturb me</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>dont call me again</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>no reason to continue</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>no time to continue</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>not sure ok continue</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>not sure ok continue</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>amm let me think</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>ok carry on please</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>amm no dont know</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>not sure but good</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>requesting do not call</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>i am at work</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>ammm ok we can</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>not sure but continue</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>not that much interested</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>its not good moment</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Please drop the call</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>please end the call</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>please break the call</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>amm stop this call</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>let me think no</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>but not bad time</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -848,13 +1498,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="62.24" customWidth="1" style="3" min="1" max="1"/>
     <col width="25.98" customWidth="1" style="3" min="2" max="2"/>
@@ -885,29 +1535,29 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+          <t>I have less experience in it</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>I have little</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
+          <t>I have three years of experience but no experience in python</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>4yrs</t>
+          <t>I dont know anything about python</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -916,7 +1566,7 @@
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>I dont have experience</t>
+          <t>I have one eighty days of experience in python</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -925,7 +1575,7 @@
       <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Too much</t>
+          <t>I dont know anything about this</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -934,7 +1584,7 @@
       <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>I have to think</t>
+          <t>No No I do not have any experience in python</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -943,7 +1593,7 @@
       <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>Very less experience of python</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -952,7 +1602,7 @@
       <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>five and half experience in python</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -961,7 +1611,7 @@
       <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>wbcuiwuw</t>
+          <t>let me think ammm I have approx 2 years of experience in it</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -970,7 +1620,7 @@
       <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Lets see</t>
+          <t>Overall i have 5 years of experience in software development in which i have 3 years of experience in python</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -979,7 +1629,7 @@
       <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I have only 4.5 years of experience in which 1.5 years of experience in python</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -988,7 +1638,7 @@
       <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I have only 4.5 years of experience in which 1.5 years of experience in python</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -997,16 +1647,343 @@
       <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I worked 2 years in this technology</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4">
-      <c r="C15" s="3" t="n"/>
+      <c r="A15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>I worked around four and half years of experience in this technology</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="4">
-      <c r="C16" s="3" t="n"/>
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>I worked 4 years in this technology</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>I worked 4 years and 6 months in this technology</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>I worked 4 years and 6 months in this technology</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>I have total 5 years of experience</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>I am fresher so I have 0 years of experience</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>I have 7 months of experience</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have three and half years of experience in it </t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>I have total 5 years of experience in which i work 2 years in python.</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>I have total 3.5 years of experience but not in python.</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Yes I have overall 2.5 years of experience</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>ok one year and 6 months of experience in it.</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>23 months of experience in it.</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>I only have few months of experience in it.</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Yes I did 2 years development in python.</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>I am new in python so i have no experience in it.</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Is there any other technology because i do not have experience in python.</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>ok I worked in python 2 years ago now i am working in other technology.</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Since 2 years I am working in python.</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Currently I am working in python.</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>I am pro in it. I have 7 years of experience in python.</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>I have 3 years of experience in it but how much experience need for this job.</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Sorry I do not have experience in it.</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>I worked 2 years in python but it was 2 years ago.</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>I am having 24 months of experience in it.</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Already I am working in it.</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>I am at intermediate level in python.</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>I am at starting level in pyhton.</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>I have done some certification in python.</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>I have done diploma cerification course in  python.</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Yes I have 2 years in python and one year in ML.</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Ok I have 2 months of experience so how much experience is required for this post.</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>I have 6 months of experience but how much experience is needed for this job.</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>I have no experience in this technology.</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>I have zero months of experience in it.</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>I didnt heard about this python technology.</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Sorry i am expert in different technology not in python.</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1021,13 +1998,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C8:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="47.82" customWidth="1" style="3" min="1" max="1"/>
     <col width="18.2" customWidth="1" style="3" min="2" max="2"/>
@@ -1058,29 +2035,29 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>10lpa</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+          <t>i am making 9 lpa</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>I am unemployed</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
+          <t>i am earning 50k inr per month</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>not much</t>
+          <t>i am earning rupees 50k per month</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -1089,7 +2066,7 @@
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>I have a yearly salary of 15 lakh INR</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -1098,7 +2075,7 @@
       <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I make 80 k per month</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -1107,7 +2084,7 @@
       <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>I have to think</t>
+          <t>Every month, I make 25 k in salary.</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -1116,7 +2093,7 @@
       <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>Every month, I make dollar 25 k in salary.</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -1125,7 +2102,7 @@
       <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>@nfeaj2</t>
+          <t>I earn 100k every month in wages.</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -1134,7 +2111,7 @@
       <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>nkjawxnncw</t>
+          <t>I am paid $2.5 lakh every month.</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -1143,7 +2120,7 @@
       <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>My ctc is 20k every week.</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -1152,7 +2129,7 @@
       <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>My ctc is 20k rupee every month.</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -1161,7 +2138,7 @@
       <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>20 lpa inr</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -1170,16 +2147,341 @@
       <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>30 k dollar per week</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="4">
-      <c r="C15" s="3" t="n"/>
+      <c r="A15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>My net income is 10 k per day</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="4">
-      <c r="C16" s="3" t="n"/>
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>I have a 9k daily income.</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>I have a 90k monthly income.</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>2.5 M INR</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>25000 rupee</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>I am expecting around 5 to 7 lpa</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>I want 90 k per year</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>I'm anticipating between 80 to 90 k.</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>umm around 9 to 10 lpa</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>some where around 20 to 40 k</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>around 9 lpa</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>I am earning 50k per month expecting 12 lpa</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>I am earning 50k per month expecting 70 to 80 inr</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>my weekly income is 2.5k</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>i am making 2.5k daily</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>where is tommato  lac per annum month</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>i am earning 90k per month per week per dayweekly earning</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>9000 per day</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>i am making 9 lpa</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>i am earning 50k per month</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>I have a yearly salary of 15 lakh INR</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>I make 80 k per month</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Every month, I make 25 k in salary</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>I earn 100k every month in wages</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>I am paid 2.5 lakh every month</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>My ctc is 20k every month</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>20 lpa</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>My net income is 10 k per month</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>I have a 90k monthly income</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>2.5 M</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="3" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>I am expecting around 5 to 7 lpa</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>I want 90 k per year</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>I'm anticipating between 80 to 90 k</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>umm around 9 to 10 lpa</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>some where around 20 to 40 k</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>"around 9 lpa</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1194,13 +2496,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="C8:C19 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="45.98" customWidth="1" style="3" min="1" max="1"/>
     <col width="22.92" customWidth="1" style="3" min="2" max="2"/>
@@ -1232,29 +2534,29 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>15lpa</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+          <t>30 k dollar per week</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>I can work for free</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
+          <t>25000 rupee</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>20 lpa inr</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -1263,17 +2565,15 @@
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>aevsfvevw</t>
+          <t>2.5 M INR</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="B6" s="3" t="n">
+        <v>25000</v>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
     </row>
@@ -1281,7 +2581,7 @@
       <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>I have to think</t>
+          <t>"around 9 lpa</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -1290,7 +2590,7 @@
       <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>2.5 M</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -1299,7 +2599,7 @@
       <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Not Interested</t>
+          <t>20 lpa</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -1308,7 +2608,7 @@
       <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>kwbdcuhbiqw</t>
+          <t>9000 per day</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -1317,7 +2617,7 @@
       <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Every month, I make 25 k in salary</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -1326,7 +2626,7 @@
       <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>i am earning 50k per month</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -1335,7 +2635,7 @@
       <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I am earning 50k per month expecting 12 lpa</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -1344,13 +2644,344 @@
       <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>I am earning 50k per month expecting 70 to 80 inr</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="4"/>
-    <row r="16" ht="12.8" customHeight="1" s="4"/>
+    <row r="15" ht="12.8" customHeight="1" s="4">
+      <c r="A15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>i am earning 90k per month per week per dayweekly earning</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="4">
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>I am expecting around 5 to 7 lpa</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>i am making 2.5k daily</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>i am making 9 lpa</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>I am paid 2.5 lakh every month</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>I earn 100k every month in wages</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>I have a 90k monthly income</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>I have a yearly salary of 15 lakh INR</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>I make 80 k per month</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>I want 90 k per year</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>I'm anticipating between 80 to 90 k</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>My ctc is 20k every month</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>i am making 9 lpa</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>I am paid $2.5 lakh every month.</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>I earn 100k every month in wages.</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>I have a 90k monthly income.</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>I have a 9k daily income.</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>I have a yearly salary of 15 lakh INR</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>I make 80 k per month</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>I want 90 k per year</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>I'm anticipating between 80 to 90 k.</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>My ctc is 20k every week.</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>My ctc is 20k rupee every month.</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>My net income is 10 k per day</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>My net income is 10 k per month</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>my weekly income is 2.5k</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>some where around 20 to 40 k</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>some where around 20 to 40 k</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>umm around 9 to 10 lpa</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>umm around 9 to 10 lpa</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>where is tommato  lac per annum month</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>I am expecting around 5 to 7 lpa</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>i am earning rupees 50k per month</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>i am earning 50k inr per month</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Every month, I make dollar 25 k in salary.</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>Every month, I make 25 k in salary.</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>around 9 lpa</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1364,13 +2995,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="55.85" customWidth="1" style="3" min="1" max="1"/>
     <col width="42.21" customWidth="1" style="3" min="2" max="2"/>
@@ -1402,29 +3033,29 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+          <t>anytime betwen 20th to 31st of this month</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>I dont want it</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
+          <t>I am available today dawn time</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>I am not sure</t>
+          <t>I am available today dusk time</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -1433,7 +3064,7 @@
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>You can fix my meeting on friday</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -1442,7 +3073,7 @@
       <c r="A6" s="3" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>call me in evening</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -1451,7 +3082,7 @@
       <c r="A7" s="3" t="inlineStr"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>I have to think</t>
+          <t>Call me in afternoon</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -1460,7 +3091,7 @@
       <c r="A8" s="3" t="inlineStr"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>call me in middle of the day</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -1469,7 +3100,7 @@
       <c r="A9" s="3" t="inlineStr"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>please dont bother to arrange interview</t>
+          <t>call me at 1pm</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -1478,7 +3109,7 @@
       <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>nbkcwcbws</t>
+          <t xml:space="preserve">call me at 7:45 pm </t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -1487,7 +3118,7 @@
       <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Lets see</t>
+          <t>Can I call you later?</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -1496,7 +3127,7 @@
       <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Can we connect later ?</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -1505,7 +3136,7 @@
       <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Please let me know in advance for further meeting</t>
+          <t>you can contact at the end of this month</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -1514,13 +3145,344 @@
       <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>anytime after this week</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="4"/>
-    <row r="16" ht="12.8" customHeight="1" s="4"/>
+    <row r="15" ht="12.8" customHeight="1" s="4">
+      <c r="A15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>anytime between upcoming 10 days</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="4">
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>next evening</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>anytime before tommorow evening</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>tommorow</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>anytime in weekend</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>i said around 6 in evening</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>anytime but not in weekdays</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>ok schedule on this weekend</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>ok schedule on this weekend</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>before afternoon on weekdays</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>today at 12pm</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>anytime between 12pm to 6pm</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>You can call me on everyday between 2 to 3 pm.</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>anytime after day after tomorrow</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>I am occupied in something so you can contact me today around 7 pm</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>you can call me last week of this month</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>can we connect on monday ?</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>You can contact me on next monday at 8pm</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Please reschedule my appointment on 3rd may nope please schedule on 5th of may around 1pm or you can do call in evening also.</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>you may call after 9</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>on weekend there is availibility So we can connect</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Yes I am available on this weekend. So we can connect on that day.</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>My schedule is tight today please call me another time</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>I probably become free after end of the day so please call me then.</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>I am not available today please reschedule my call on weekend</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>please schedule this call on very next day.</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Please let me know in advance for further meeting</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>thanks for calling but today I am busy can you please call me later</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>you can contact at the end of this month</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>anytime after this week</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>anytime between upcoming 10 days</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>next evening</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>anytime before tommorow evening</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>tommorow</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>anytime in weekend</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>i said around 6 in evening</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>anytime but not in weekdays</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/response_with_status_temp.xlsx
+++ b/response_with_status_temp.xlsx
@@ -498,14 +498,14 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C8:C19 C7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="67.52" customWidth="1" style="3" min="1" max="1"/>
-    <col width="40.29" customWidth="1" style="3" min="2" max="2"/>
+    <col width="55.02" customWidth="1" style="3" min="2" max="2"/>
     <col width="17.64" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -534,37 +534,53 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>yeah tell</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
+          <t>you can contact at the end of this month</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Ok bye</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
+          <t>anytime after this week</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>you can contact at the end of this month</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
+          <t>yeah tell</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Paragraph Repeat</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>anytime after this week</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
+          <t>ok bye</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -665,7 +681,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr"/>
     </row>
-    <row r="17">
+    <row r="17" ht="12.8" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -674,7 +690,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr"/>
     </row>
-    <row r="18">
+    <row r="18" ht="12.8" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -683,7 +699,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr"/>
     </row>
-    <row r="19">
+    <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -692,7 +708,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr"/>
     </row>
-    <row r="20">
+    <row r="20" ht="12.8" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -701,7 +717,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr"/>
     </row>
-    <row r="21">
+    <row r="21" ht="12.8" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -710,7 +726,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr"/>
     </row>
-    <row r="22">
+    <row r="22" ht="12.8" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -719,7 +735,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr"/>
     </row>
-    <row r="23">
+    <row r="23" ht="12.8" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -728,7 +744,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr"/>
     </row>
-    <row r="24">
+    <row r="24" ht="12.8" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -737,7 +753,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr"/>
     </row>
-    <row r="25">
+    <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -746,7 +762,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr"/>
     </row>
-    <row r="26">
+    <row r="26" ht="12.8" customHeight="1" s="4">
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -755,7 +771,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr"/>
     </row>
-    <row r="27">
+    <row r="27" ht="12.8" customHeight="1" s="4">
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -764,7 +780,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr"/>
     </row>
-    <row r="28">
+    <row r="28" ht="12.8" customHeight="1" s="4">
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -773,7 +789,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr"/>
     </row>
-    <row r="29">
+    <row r="29" ht="12.8" customHeight="1" s="4">
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -782,7 +798,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr"/>
     </row>
-    <row r="30">
+    <row r="30" ht="12.8" customHeight="1" s="4">
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -791,7 +807,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr"/>
     </row>
-    <row r="31">
+    <row r="31" ht="12.8" customHeight="1" s="4">
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
@@ -800,7 +816,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr"/>
     </row>
-    <row r="32">
+    <row r="32" ht="12.8" customHeight="1" s="4">
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
@@ -809,7 +825,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr"/>
     </row>
-    <row r="33">
+    <row r="33" ht="12.8" customHeight="1" s="4">
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
@@ -818,7 +834,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr"/>
     </row>
-    <row r="34">
+    <row r="34" ht="12.8" customHeight="1" s="4">
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
@@ -827,7 +843,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr"/>
     </row>
-    <row r="35">
+    <row r="35" ht="12.8" customHeight="1" s="4">
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
@@ -836,7 +852,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr"/>
     </row>
-    <row r="36">
+    <row r="36" ht="12.8" customHeight="1" s="4">
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
@@ -845,7 +861,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr"/>
     </row>
-    <row r="37">
+    <row r="37" ht="12.8" customHeight="1" s="4">
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
@@ -854,7 +870,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr"/>
     </row>
-    <row r="38">
+    <row r="38" ht="12.8" customHeight="1" s="4">
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
@@ -863,7 +879,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr"/>
     </row>
-    <row r="39">
+    <row r="39" ht="12.8" customHeight="1" s="4">
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
@@ -872,7 +888,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr"/>
     </row>
-    <row r="40">
+    <row r="40" ht="12.8" customHeight="1" s="4">
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
@@ -881,7 +897,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr"/>
     </row>
-    <row r="41">
+    <row r="41" ht="12.8" customHeight="1" s="4">
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
@@ -890,7 +906,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr"/>
     </row>
-    <row r="42">
+    <row r="42" ht="12.8" customHeight="1" s="4">
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
@@ -899,7 +915,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr"/>
     </row>
-    <row r="43">
+    <row r="43" ht="12.8" customHeight="1" s="4">
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
@@ -908,7 +924,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr"/>
     </row>
-    <row r="44">
+    <row r="44" ht="12.8" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
@@ -917,7 +933,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr"/>
     </row>
-    <row r="45">
+    <row r="45" ht="12.8" customHeight="1" s="4">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
@@ -926,7 +942,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr"/>
     </row>
-    <row r="46">
+    <row r="46" ht="12.8" customHeight="1" s="4">
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
@@ -935,7 +951,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr"/>
     </row>
-    <row r="47">
+    <row r="47" ht="12.8" customHeight="1" s="4">
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
@@ -944,20 +960,16 @@
       </c>
       <c r="C47" s="3" t="inlineStr"/>
     </row>
-    <row r="48">
+    <row r="48" ht="12.8" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
           <t>pretty much and is there any other technology</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49" ht="12.8" customHeight="1" s="4">
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
@@ -966,7 +978,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr"/>
     </row>
-    <row r="50">
+    <row r="50" ht="12.8" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
@@ -975,7 +987,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr"/>
     </row>
-    <row r="51">
+    <row r="51" ht="12.8" customHeight="1" s="4">
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
@@ -999,11 +1011,11 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="98.37" customWidth="1" style="3" min="1" max="1"/>
     <col width="42.79" customWidth="1" style="3" min="2" max="2"/>
@@ -1047,11 +1059,7 @@
           <t>I would be interested</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -1069,7 +1077,11 @@
           <t>I would be available</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -1170,7 +1182,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr"/>
     </row>
-    <row r="17">
+    <row r="17" ht="12.8" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -1179,7 +1191,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr"/>
     </row>
-    <row r="18">
+    <row r="18" ht="12.8" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -1188,7 +1200,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr"/>
     </row>
-    <row r="19">
+    <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -1197,7 +1209,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr"/>
     </row>
-    <row r="20">
+    <row r="20" ht="12.8" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -1206,7 +1218,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr"/>
     </row>
-    <row r="21">
+    <row r="21" ht="12.8" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -1215,7 +1227,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr"/>
     </row>
-    <row r="22">
+    <row r="22" ht="12.8" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -1224,7 +1236,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr"/>
     </row>
-    <row r="23">
+    <row r="23" ht="12.8" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -1233,7 +1245,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr"/>
     </row>
-    <row r="24">
+    <row r="24" ht="12.8" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -1242,7 +1254,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr"/>
     </row>
-    <row r="25">
+    <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -1251,7 +1263,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr"/>
     </row>
-    <row r="26">
+    <row r="26" ht="12.8" customHeight="1" s="4">
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -1260,7 +1272,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr"/>
     </row>
-    <row r="27">
+    <row r="27" ht="12.8" customHeight="1" s="4">
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -1269,7 +1281,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr"/>
     </row>
-    <row r="28">
+    <row r="28" ht="12.8" customHeight="1" s="4">
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -1278,7 +1290,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr"/>
     </row>
-    <row r="29">
+    <row r="29" ht="12.8" customHeight="1" s="4">
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -1287,7 +1299,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr"/>
     </row>
-    <row r="30">
+    <row r="30" ht="12.8" customHeight="1" s="4">
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -1296,7 +1308,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr"/>
     </row>
-    <row r="31">
+    <row r="31" ht="12.8" customHeight="1" s="4">
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
@@ -1305,7 +1317,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr"/>
     </row>
-    <row r="32">
+    <row r="32" ht="12.8" customHeight="1" s="4">
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
@@ -1314,7 +1326,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr"/>
     </row>
-    <row r="33">
+    <row r="33" ht="12.8" customHeight="1" s="4">
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
@@ -1323,7 +1335,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr"/>
     </row>
-    <row r="34">
+    <row r="34" ht="12.8" customHeight="1" s="4">
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
@@ -1332,7 +1344,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr"/>
     </row>
-    <row r="35">
+    <row r="35" ht="12.8" customHeight="1" s="4">
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
@@ -1341,7 +1353,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr"/>
     </row>
-    <row r="36">
+    <row r="36" ht="12.8" customHeight="1" s="4">
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
@@ -1350,7 +1362,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr"/>
     </row>
-    <row r="37">
+    <row r="37" ht="12.8" customHeight="1" s="4">
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
@@ -1359,7 +1371,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr"/>
     </row>
-    <row r="38">
+    <row r="38" ht="12.8" customHeight="1" s="4">
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
@@ -1368,7 +1380,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr"/>
     </row>
-    <row r="39">
+    <row r="39" ht="12.8" customHeight="1" s="4">
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
@@ -1377,7 +1389,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr"/>
     </row>
-    <row r="40">
+    <row r="40" ht="12.8" customHeight="1" s="4">
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
@@ -1386,7 +1398,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr"/>
     </row>
-    <row r="41">
+    <row r="41" ht="12.8" customHeight="1" s="4">
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
@@ -1395,7 +1407,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr"/>
     </row>
-    <row r="42">
+    <row r="42" ht="12.8" customHeight="1" s="4">
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
@@ -1404,7 +1416,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr"/>
     </row>
-    <row r="43">
+    <row r="43" ht="12.8" customHeight="1" s="4">
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
@@ -1413,7 +1425,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr"/>
     </row>
-    <row r="44">
+    <row r="44" ht="12.8" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
@@ -1422,7 +1434,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr"/>
     </row>
-    <row r="45">
+    <row r="45" ht="12.8" customHeight="1" s="4">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
@@ -1431,7 +1443,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr"/>
     </row>
-    <row r="46">
+    <row r="46" ht="12.8" customHeight="1" s="4">
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
@@ -1440,7 +1452,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr"/>
     </row>
-    <row r="47">
+    <row r="47" ht="12.8" customHeight="1" s="4">
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
@@ -1449,7 +1461,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr"/>
     </row>
-    <row r="48">
+    <row r="48" ht="12.8" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
@@ -1458,7 +1470,7 @@
       </c>
       <c r="C48" s="3" t="inlineStr"/>
     </row>
-    <row r="49">
+    <row r="49" ht="12.8" customHeight="1" s="4">
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
@@ -1467,7 +1479,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr"/>
     </row>
-    <row r="50">
+    <row r="50" ht="12.8" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
@@ -1476,7 +1488,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr"/>
     </row>
-    <row r="51">
+    <row r="51" ht="12.8" customHeight="1" s="4">
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
@@ -1500,14 +1512,14 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="62.24" customWidth="1" style="3" min="1" max="1"/>
-    <col width="25.98" customWidth="1" style="3" min="2" max="2"/>
+    <col width="90.03" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
@@ -1547,11 +1559,7 @@
           <t>I have three years of experience but no experience in python</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -1569,7 +1577,11 @@
           <t>I have one eighty days of experience in python</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -1670,7 +1682,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr"/>
     </row>
-    <row r="17">
+    <row r="17" ht="12.8" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -1679,7 +1691,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr"/>
     </row>
-    <row r="18">
+    <row r="18" ht="12.8" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -1688,7 +1700,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr"/>
     </row>
-    <row r="19">
+    <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -1697,7 +1709,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr"/>
     </row>
-    <row r="20">
+    <row r="20" ht="12.8" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -1706,7 +1718,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr"/>
     </row>
-    <row r="21">
+    <row r="21" ht="12.8" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -1715,7 +1727,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr"/>
     </row>
-    <row r="22">
+    <row r="22" ht="12.8" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -1724,7 +1736,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr"/>
     </row>
-    <row r="23">
+    <row r="23" ht="12.8" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -1733,7 +1745,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr"/>
     </row>
-    <row r="24">
+    <row r="24" ht="12.8" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -1742,7 +1754,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr"/>
     </row>
-    <row r="25">
+    <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -1751,7 +1763,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr"/>
     </row>
-    <row r="26">
+    <row r="26" ht="12.8" customHeight="1" s="4">
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -1760,7 +1772,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr"/>
     </row>
-    <row r="27">
+    <row r="27" ht="12.8" customHeight="1" s="4">
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -1769,7 +1781,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr"/>
     </row>
-    <row r="28">
+    <row r="28" ht="12.8" customHeight="1" s="4">
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -1778,7 +1790,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr"/>
     </row>
-    <row r="29">
+    <row r="29" ht="12.8" customHeight="1" s="4">
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -1787,7 +1799,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr"/>
     </row>
-    <row r="30">
+    <row r="30" ht="12.8" customHeight="1" s="4">
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -1796,7 +1808,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr"/>
     </row>
-    <row r="31">
+    <row r="31" ht="12.8" customHeight="1" s="4">
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
@@ -1805,7 +1817,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr"/>
     </row>
-    <row r="32">
+    <row r="32" ht="12.8" customHeight="1" s="4">
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
@@ -1814,7 +1826,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr"/>
     </row>
-    <row r="33">
+    <row r="33" ht="12.8" customHeight="1" s="4">
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
@@ -1823,7 +1835,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr"/>
     </row>
-    <row r="34">
+    <row r="34" ht="12.8" customHeight="1" s="4">
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1844,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr"/>
     </row>
-    <row r="35">
+    <row r="35" ht="12.8" customHeight="1" s="4">
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
@@ -1841,7 +1853,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr"/>
     </row>
-    <row r="36">
+    <row r="36" ht="12.8" customHeight="1" s="4">
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
@@ -1850,7 +1862,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr"/>
     </row>
-    <row r="37">
+    <row r="37" ht="12.8" customHeight="1" s="4">
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
@@ -1859,7 +1871,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr"/>
     </row>
-    <row r="38">
+    <row r="38" ht="12.8" customHeight="1" s="4">
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
@@ -1868,7 +1880,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr"/>
     </row>
-    <row r="39">
+    <row r="39" ht="12.8" customHeight="1" s="4">
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
@@ -1877,7 +1889,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr"/>
     </row>
-    <row r="40">
+    <row r="40" ht="12.8" customHeight="1" s="4">
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
@@ -1886,7 +1898,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr"/>
     </row>
-    <row r="41">
+    <row r="41" ht="12.8" customHeight="1" s="4">
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
@@ -1895,7 +1907,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr"/>
     </row>
-    <row r="42">
+    <row r="42" ht="12.8" customHeight="1" s="4">
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
@@ -1904,7 +1916,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr"/>
     </row>
-    <row r="43">
+    <row r="43" ht="12.8" customHeight="1" s="4">
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
@@ -1913,7 +1925,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr"/>
     </row>
-    <row r="44">
+    <row r="44" ht="12.8" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
@@ -1922,7 +1934,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr"/>
     </row>
-    <row r="45">
+    <row r="45" ht="12.8" customHeight="1" s="4">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
@@ -1931,7 +1943,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr"/>
     </row>
-    <row r="46">
+    <row r="46" ht="12.8" customHeight="1" s="4">
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
@@ -1940,7 +1952,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr"/>
     </row>
-    <row r="47">
+    <row r="47" ht="12.8" customHeight="1" s="4">
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
@@ -1949,7 +1961,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr"/>
     </row>
-    <row r="48">
+    <row r="48" ht="12.8" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
@@ -1958,7 +1970,7 @@
       </c>
       <c r="C48" s="3" t="inlineStr"/>
     </row>
-    <row r="49">
+    <row r="49" ht="12.8" customHeight="1" s="4">
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
@@ -1967,7 +1979,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr"/>
     </row>
-    <row r="50">
+    <row r="50" ht="12.8" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
@@ -1976,7 +1988,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr"/>
     </row>
-    <row r="51">
+    <row r="51" ht="12.8" customHeight="1" s="4">
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
@@ -2000,14 +2012,14 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C8:C19"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="47.82" customWidth="1" style="3" min="1" max="1"/>
-    <col width="18.2" customWidth="1" style="3" min="2" max="2"/>
+    <col width="43.48" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
@@ -2047,11 +2059,7 @@
           <t>i am earning 50k inr per month</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -2069,7 +2077,11 @@
           <t>I have a yearly salary of 15 lakh INR</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -2170,7 +2182,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr"/>
     </row>
-    <row r="17">
+    <row r="17" ht="12.8" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -2179,7 +2191,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr"/>
     </row>
-    <row r="18">
+    <row r="18" ht="12.8" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -2188,7 +2200,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr"/>
     </row>
-    <row r="19">
+    <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -2197,7 +2209,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr"/>
     </row>
-    <row r="20">
+    <row r="20" ht="12.8" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -2206,7 +2218,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr"/>
     </row>
-    <row r="21">
+    <row r="21" ht="12.8" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -2215,7 +2227,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr"/>
     </row>
-    <row r="22">
+    <row r="22" ht="12.8" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -2224,7 +2236,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr"/>
     </row>
-    <row r="23">
+    <row r="23" ht="12.8" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -2233,7 +2245,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr"/>
     </row>
-    <row r="24">
+    <row r="24" ht="12.8" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -2242,7 +2254,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr"/>
     </row>
-    <row r="25">
+    <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -2251,7 +2263,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr"/>
     </row>
-    <row r="26">
+    <row r="26" ht="12.8" customHeight="1" s="4">
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -2260,7 +2272,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr"/>
     </row>
-    <row r="27">
+    <row r="27" ht="12.8" customHeight="1" s="4">
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -2269,7 +2281,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr"/>
     </row>
-    <row r="28">
+    <row r="28" ht="12.8" customHeight="1" s="4">
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -2278,7 +2290,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr"/>
     </row>
-    <row r="29">
+    <row r="29" ht="12.8" customHeight="1" s="4">
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -2287,7 +2299,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr"/>
     </row>
-    <row r="30">
+    <row r="30" ht="12.8" customHeight="1" s="4">
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -2296,7 +2308,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr"/>
     </row>
-    <row r="31">
+    <row r="31" ht="12.8" customHeight="1" s="4">
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
@@ -2305,7 +2317,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr"/>
     </row>
-    <row r="32">
+    <row r="32" ht="12.8" customHeight="1" s="4">
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
@@ -2314,7 +2326,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr"/>
     </row>
-    <row r="33">
+    <row r="33" ht="12.8" customHeight="1" s="4">
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
@@ -2323,7 +2335,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr"/>
     </row>
-    <row r="34">
+    <row r="34" ht="12.8" customHeight="1" s="4">
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
@@ -2332,7 +2344,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr"/>
     </row>
-    <row r="35">
+    <row r="35" ht="12.8" customHeight="1" s="4">
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
@@ -2341,7 +2353,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr"/>
     </row>
-    <row r="36">
+    <row r="36" ht="12.8" customHeight="1" s="4">
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
@@ -2350,7 +2362,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr"/>
     </row>
-    <row r="37">
+    <row r="37" ht="12.8" customHeight="1" s="4">
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
@@ -2359,7 +2371,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr"/>
     </row>
-    <row r="38">
+    <row r="38" ht="12.8" customHeight="1" s="4">
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
@@ -2368,7 +2380,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr"/>
     </row>
-    <row r="39">
+    <row r="39" ht="12.8" customHeight="1" s="4">
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
@@ -2377,7 +2389,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr"/>
     </row>
-    <row r="40">
+    <row r="40" ht="12.8" customHeight="1" s="4">
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
@@ -2386,7 +2398,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr"/>
     </row>
-    <row r="41">
+    <row r="41" ht="12.8" customHeight="1" s="4">
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
@@ -2395,7 +2407,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr"/>
     </row>
-    <row r="42">
+    <row r="42" ht="12.8" customHeight="1" s="4">
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
@@ -2404,7 +2416,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr"/>
     </row>
-    <row r="43">
+    <row r="43" ht="12.8" customHeight="1" s="4">
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
@@ -2413,7 +2425,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr"/>
     </row>
-    <row r="44">
+    <row r="44" ht="12.8" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
@@ -2422,14 +2434,14 @@
       </c>
       <c r="C44" s="3" t="inlineStr"/>
     </row>
-    <row r="45">
+    <row r="45" ht="12.8" customHeight="1" s="4">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="n">
         <v>25000</v>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
     </row>
-    <row r="46">
+    <row r="46" ht="12.8" customHeight="1" s="4">
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
@@ -2438,7 +2450,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr"/>
     </row>
-    <row r="47">
+    <row r="47" ht="12.8" customHeight="1" s="4">
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
@@ -2447,7 +2459,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr"/>
     </row>
-    <row r="48">
+    <row r="48" ht="12.8" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
@@ -2456,7 +2468,7 @@
       </c>
       <c r="C48" s="3" t="inlineStr"/>
     </row>
-    <row r="49">
+    <row r="49" ht="12.8" customHeight="1" s="4">
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
@@ -2465,7 +2477,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr"/>
     </row>
-    <row r="50">
+    <row r="50" ht="12.8" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
@@ -2474,7 +2486,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr"/>
     </row>
-    <row r="51">
+    <row r="51" ht="12.8" customHeight="1" s="4">
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
@@ -2498,14 +2510,14 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="C8:C19 C6"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="45.98" customWidth="1" style="3" min="1" max="1"/>
-    <col width="22.92" customWidth="1" style="3" min="2" max="2"/>
+    <col width="53.63" customWidth="1" style="3" min="2" max="2"/>
     <col width="15.68" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -2546,11 +2558,7 @@
           <t>25000 rupee</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -2568,7 +2576,11 @@
           <t>2.5 M INR</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -2667,7 +2679,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr"/>
     </row>
-    <row r="17">
+    <row r="17" ht="12.8" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -2676,7 +2688,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr"/>
     </row>
-    <row r="18">
+    <row r="18" ht="12.8" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -2685,7 +2697,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr"/>
     </row>
-    <row r="19">
+    <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -2694,7 +2706,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr"/>
     </row>
-    <row r="20">
+    <row r="20" ht="12.8" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -2703,7 +2715,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr"/>
     </row>
-    <row r="21">
+    <row r="21" ht="12.8" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -2712,7 +2724,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr"/>
     </row>
-    <row r="22">
+    <row r="22" ht="12.8" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -2721,7 +2733,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr"/>
     </row>
-    <row r="23">
+    <row r="23" ht="12.8" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -2730,7 +2742,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr"/>
     </row>
-    <row r="24">
+    <row r="24" ht="12.8" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -2739,7 +2751,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr"/>
     </row>
-    <row r="25">
+    <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -2748,7 +2760,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr"/>
     </row>
-    <row r="26">
+    <row r="26" ht="12.8" customHeight="1" s="4">
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -2757,7 +2769,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr"/>
     </row>
-    <row r="27">
+    <row r="27" ht="12.8" customHeight="1" s="4">
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -2766,7 +2778,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr"/>
     </row>
-    <row r="28">
+    <row r="28" ht="12.8" customHeight="1" s="4">
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -2775,7 +2787,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr"/>
     </row>
-    <row r="29">
+    <row r="29" ht="12.8" customHeight="1" s="4">
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -2784,7 +2796,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr"/>
     </row>
-    <row r="30">
+    <row r="30" ht="12.8" customHeight="1" s="4">
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -2793,7 +2805,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr"/>
     </row>
-    <row r="31">
+    <row r="31" ht="12.8" customHeight="1" s="4">
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
@@ -2802,7 +2814,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr"/>
     </row>
-    <row r="32">
+    <row r="32" ht="12.8" customHeight="1" s="4">
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
@@ -2811,7 +2823,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr"/>
     </row>
-    <row r="33">
+    <row r="33" ht="12.8" customHeight="1" s="4">
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
@@ -2820,7 +2832,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr"/>
     </row>
-    <row r="34">
+    <row r="34" ht="12.8" customHeight="1" s="4">
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
@@ -2829,7 +2841,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr"/>
     </row>
-    <row r="35">
+    <row r="35" ht="12.8" customHeight="1" s="4">
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
@@ -2838,7 +2850,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr"/>
     </row>
-    <row r="36">
+    <row r="36" ht="12.8" customHeight="1" s="4">
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
@@ -2847,7 +2859,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr"/>
     </row>
-    <row r="37">
+    <row r="37" ht="12.8" customHeight="1" s="4">
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
@@ -2856,7 +2868,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr"/>
     </row>
-    <row r="38">
+    <row r="38" ht="12.8" customHeight="1" s="4">
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
@@ -2865,7 +2877,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr"/>
     </row>
-    <row r="39">
+    <row r="39" ht="12.8" customHeight="1" s="4">
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
@@ -2874,7 +2886,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr"/>
     </row>
-    <row r="40">
+    <row r="40" ht="12.8" customHeight="1" s="4">
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
@@ -2883,7 +2895,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr"/>
     </row>
-    <row r="41">
+    <row r="41" ht="12.8" customHeight="1" s="4">
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
@@ -2892,7 +2904,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr"/>
     </row>
-    <row r="42">
+    <row r="42" ht="12.8" customHeight="1" s="4">
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
@@ -2901,7 +2913,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr"/>
     </row>
-    <row r="43">
+    <row r="43" ht="12.8" customHeight="1" s="4">
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
@@ -2910,7 +2922,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr"/>
     </row>
-    <row r="44">
+    <row r="44" ht="12.8" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
@@ -2919,7 +2931,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr"/>
     </row>
-    <row r="45">
+    <row r="45" ht="12.8" customHeight="1" s="4">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
@@ -2928,7 +2940,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr"/>
     </row>
-    <row r="46">
+    <row r="46" ht="12.8" customHeight="1" s="4">
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
@@ -2937,7 +2949,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr"/>
     </row>
-    <row r="47">
+    <row r="47" ht="12.8" customHeight="1" s="4">
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
@@ -2946,7 +2958,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr"/>
     </row>
-    <row r="48">
+    <row r="48" ht="12.8" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
@@ -2955,7 +2967,7 @@
       </c>
       <c r="C48" s="3" t="inlineStr"/>
     </row>
-    <row r="49">
+    <row r="49" ht="12.8" customHeight="1" s="4">
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
@@ -2964,7 +2976,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr"/>
     </row>
-    <row r="50">
+    <row r="50" ht="12.8" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
@@ -2973,7 +2985,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr"/>
     </row>
-    <row r="51">
+    <row r="51" ht="12.8" customHeight="1" s="4">
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
@@ -2997,14 +3009,14 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C19"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="55.85" customWidth="1" style="3" min="1" max="1"/>
-    <col width="42.21" customWidth="1" style="3" min="2" max="2"/>
+    <col width="55.44" customWidth="1" style="3" min="2" max="2"/>
     <col width="15.42" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -3045,11 +3057,7 @@
           <t>I am available today dawn time</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -3067,7 +3075,11 @@
           <t>You can fix my meeting on friday</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -3168,7 +3180,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr"/>
     </row>
-    <row r="17">
+    <row r="17" ht="12.8" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -3177,7 +3189,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr"/>
     </row>
-    <row r="18">
+    <row r="18" ht="12.8" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -3186,7 +3198,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr"/>
     </row>
-    <row r="19">
+    <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -3195,7 +3207,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr"/>
     </row>
-    <row r="20">
+    <row r="20" ht="12.8" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -3204,7 +3216,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr"/>
     </row>
-    <row r="21">
+    <row r="21" ht="12.8" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -3213,7 +3225,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr"/>
     </row>
-    <row r="22">
+    <row r="22" ht="12.8" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -3222,7 +3234,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr"/>
     </row>
-    <row r="23">
+    <row r="23" ht="12.8" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -3231,7 +3243,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr"/>
     </row>
-    <row r="24">
+    <row r="24" ht="12.8" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -3240,7 +3252,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr"/>
     </row>
-    <row r="25">
+    <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -3249,7 +3261,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr"/>
     </row>
-    <row r="26">
+    <row r="26" ht="12.8" customHeight="1" s="4">
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -3258,7 +3270,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr"/>
     </row>
-    <row r="27">
+    <row r="27" ht="12.8" customHeight="1" s="4">
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -3267,7 +3279,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr"/>
     </row>
-    <row r="28">
+    <row r="28" ht="12.8" customHeight="1" s="4">
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -3276,7 +3288,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr"/>
     </row>
-    <row r="29">
+    <row r="29" ht="12.8" customHeight="1" s="4">
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -3285,7 +3297,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr"/>
     </row>
-    <row r="30">
+    <row r="30" ht="12.8" customHeight="1" s="4">
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -3294,7 +3306,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr"/>
     </row>
-    <row r="31">
+    <row r="31" ht="12.8" customHeight="1" s="4">
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
@@ -3303,7 +3315,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr"/>
     </row>
-    <row r="32">
+    <row r="32" ht="12.8" customHeight="1" s="4">
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
@@ -3312,7 +3324,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr"/>
     </row>
-    <row r="33">
+    <row r="33" ht="12.8" customHeight="1" s="4">
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
@@ -3321,7 +3333,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr"/>
     </row>
-    <row r="34">
+    <row r="34" ht="12.8" customHeight="1" s="4">
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
@@ -3330,7 +3342,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr"/>
     </row>
-    <row r="35">
+    <row r="35" ht="12.8" customHeight="1" s="4">
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
@@ -3339,7 +3351,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr"/>
     </row>
-    <row r="36">
+    <row r="36" ht="12.8" customHeight="1" s="4">
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
@@ -3348,7 +3360,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr"/>
     </row>
-    <row r="37">
+    <row r="37" ht="12.8" customHeight="1" s="4">
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
@@ -3357,7 +3369,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr"/>
     </row>
-    <row r="38">
+    <row r="38" ht="12.8" customHeight="1" s="4">
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
@@ -3366,7 +3378,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr"/>
     </row>
-    <row r="39">
+    <row r="39" ht="12.8" customHeight="1" s="4">
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
@@ -3375,7 +3387,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr"/>
     </row>
-    <row r="40">
+    <row r="40" ht="12.8" customHeight="1" s="4">
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
@@ -3384,7 +3396,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr"/>
     </row>
-    <row r="41">
+    <row r="41" ht="12.8" customHeight="1" s="4">
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
@@ -3393,7 +3405,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr"/>
     </row>
-    <row r="42">
+    <row r="42" ht="12.8" customHeight="1" s="4">
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
@@ -3402,7 +3414,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr"/>
     </row>
-    <row r="43">
+    <row r="43" ht="12.8" customHeight="1" s="4">
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
@@ -3411,7 +3423,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr"/>
     </row>
-    <row r="44">
+    <row r="44" ht="12.8" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
@@ -3420,7 +3432,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr"/>
     </row>
-    <row r="45">
+    <row r="45" ht="12.8" customHeight="1" s="4">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
@@ -3429,7 +3441,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr"/>
     </row>
-    <row r="46">
+    <row r="46" ht="12.8" customHeight="1" s="4">
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
@@ -3438,7 +3450,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr"/>
     </row>
-    <row r="47">
+    <row r="47" ht="12.8" customHeight="1" s="4">
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
@@ -3447,7 +3459,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr"/>
     </row>
-    <row r="48">
+    <row r="48" ht="12.8" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
@@ -3456,7 +3468,7 @@
       </c>
       <c r="C48" s="3" t="inlineStr"/>
     </row>
-    <row r="49">
+    <row r="49" ht="12.8" customHeight="1" s="4">
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
@@ -3465,7 +3477,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr"/>
     </row>
-    <row r="50">
+    <row r="50" ht="12.8" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
@@ -3474,7 +3486,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr"/>
     </row>
-    <row r="51">
+    <row r="51" ht="12.8" customHeight="1" s="4">
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>

--- a/response_with_status_temp.xlsx
+++ b/response_with_status_temp.xlsx
@@ -498,11 +498,11 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="67.52" customWidth="1" style="3" min="1" max="1"/>
     <col width="55.02" customWidth="1" style="3" min="2" max="2"/>
@@ -537,11 +537,7 @@
           <t>you can contact at the end of this month</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr"/>
@@ -550,11 +546,7 @@
           <t>anytime after this week</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -563,11 +555,7 @@
           <t>yeah tell</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
       <c r="A5" s="3" t="inlineStr"/>
@@ -576,11 +564,7 @@
           <t>ok bye</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -976,7 +960,11 @@
           <t>i have 3 years of experience but what is the requirement</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr"/>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
@@ -985,7 +973,11 @@
           <t>i have 3 years of experience but how much you required</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr"/>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Paragraph Repeat</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="4">
       <c r="A51" s="3" t="inlineStr"/>
@@ -994,7 +986,11 @@
           <t>yes why not</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1011,11 +1007,11 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="98.37" customWidth="1" style="3" min="1" max="1"/>
     <col width="42.79" customWidth="1" style="3" min="2" max="2"/>
@@ -1077,11 +1073,7 @@
           <t>I would be available</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -1477,7 +1469,11 @@
           <t>amm stop this call</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr"/>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
@@ -1495,7 +1491,11 @@
           <t>but not bad time</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1512,11 +1512,11 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="62.24" customWidth="1" style="3" min="1" max="1"/>
     <col width="90.03" customWidth="1" style="3" min="2" max="2"/>
@@ -1577,11 +1577,7 @@
           <t>I have one eighty days of experience in python</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -1995,7 +1991,11 @@
           <t>Sorry i am expert in different technology not in python.</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2012,14 +2012,14 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="47.82" customWidth="1" style="3" min="1" max="1"/>
-    <col width="43.48" customWidth="1" style="3" min="2" max="2"/>
+    <col width="43.47" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="4">
@@ -2077,11 +2077,7 @@
           <t>I have a yearly salary of 15 lakh INR</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -2493,7 +2489,11 @@
           <t>"around 9 lpa</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2511,10 +2511,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="45.98" customWidth="1" style="3" min="1" max="1"/>
     <col width="53.63" customWidth="1" style="3" min="2" max="2"/>
@@ -2576,11 +2576,7 @@
           <t>2.5 M INR</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -2992,7 +2988,11 @@
           <t>around 9 lpa</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3010,10 +3010,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="55.85" customWidth="1" style="3" min="1" max="1"/>
     <col width="55.44" customWidth="1" style="3" min="2" max="2"/>
@@ -3075,11 +3075,7 @@
           <t>You can fix my meeting on friday</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -3493,7 +3489,11 @@
           <t>anytime but not in weekdays</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
